--- a/excel/Abiertas.xlsx
+++ b/excel/Abiertas.xlsx
@@ -568,9 +568,8 @@
       <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="S2">
-        <f>IF(T5="",0,(TODAY()-T5))</f>
-        <v/>
+      <c r="S2" t="n">
+        <v>19</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>43300</v>
